--- a/data/financial_statements/soci/BA.xlsx
+++ b/data/financial_statements/soci/BA.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,1000 +608,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>19980000000</v>
+      </c>
+      <c r="C2">
         <v>15956000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>16681000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>13991000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>14793000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15278000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>16998000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>15217000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>15304000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>14139000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>11807000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>16908000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>17911000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>19980000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>15751000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>22917000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>28341000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>25146000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>24258000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>23382000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>24770000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>24223000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>23051000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>21961000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>22211000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>23898000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>24755000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>22632000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>23573000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>25849000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>24543000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>22149000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>24468000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>23784000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>22045000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>20465000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>23785000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>22130000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>21815000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>18893000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.3506</v>
+      </c>
+      <c r="C3">
         <v>0.0444</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-0.0186</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0806</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.0334</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0806</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.4397</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.1456</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.2923</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.2504</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.2622</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.368</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.2054</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.3507</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.0199</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1442</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0381</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0524</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.06469999999999999</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1152</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0136</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.0688</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0296</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0578</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0755</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0086</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0218</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0366</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0868</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.1133</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0823</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0287</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0747</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0105</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0832</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0665</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.1061</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0905</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0253</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>18116000000</v>
+      </c>
+      <c r="C4">
         <v>16771000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>14553000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>13638000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>17300000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13559000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>14579000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>13799000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>20982000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>13095000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>12967000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>16756000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>18695000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>16915000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>17794000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>18627000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>22072000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>21022000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>19519000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>18808000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>19864000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>19929000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>18689000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>18060000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>17687000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>19890000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>22309000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>19081000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>20627000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>21584000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>21333000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>18480000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>20695000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>20057000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>18653000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>17278000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>20368000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>18656000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>18432000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>15737000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1864000000</v>
+      </c>
+      <c r="C5">
         <v>-815000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2128000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>353000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-2507000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1719000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2419000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1418000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-5678000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1044000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-1160000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>152000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-784000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3065000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-2043000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4290000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>6269000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4124000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4739000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4574000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>4906000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>4294000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4362000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3901000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>4524000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>4008000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2446000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3551000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2946000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>4265000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3210000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>3669000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3773000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>3727000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3392000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3187000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>3417000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>3474000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>3383000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>3156000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>794000000</v>
+      </c>
+      <c r="C6">
         <v>727000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>698000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>633000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>678000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>575000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>497000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>499000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>605000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>574000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>625000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>672000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>749000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>778000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>826000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>866000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>852000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>826000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>827000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>764000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>762000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>768000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>813000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>836000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>725000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>857000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2127000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>917000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>905000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>857000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>800000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>769000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>755000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>750000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>733000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>809000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>848000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>755000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>763000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>705000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1430000000</v>
+      </c>
+      <c r="C7">
         <v>1226000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>668000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>863000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>988000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1097000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1040000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1032000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1828000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>955000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1161000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>873000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1052000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1001000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>672000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1184000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1222000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1154000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1194000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>997000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1205000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>918000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1043000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>929000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>996000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>923000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>806000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>888000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>931000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>889000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>760000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>945000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1040000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>932000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>918000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>877000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1100000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>956000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>929000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>971000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>-353000000</v>
+      </c>
+      <c r="C8">
         <v>-2799000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>774000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-1169000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-4171000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>329000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1023000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-83000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-8049000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-401000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-2964000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-1353000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-2204000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1259000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-3380000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2350000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>4175000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2227000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2710000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2875000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2978000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2630000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2530000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>2206000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2876000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2282000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-419000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1788000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1161000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>2580000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1683000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2019000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>2025000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2119000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1787000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1542000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1515000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1803000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1716000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1528000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>8000000</v>
+      </c>
+      <c r="C9">
         <v>7000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6000000</v>
-      </c>
-      <c r="D9">
-        <v>7000000</v>
       </c>
       <c r="E9">
         <v>7000000</v>
@@ -1496,34 +1634,34 @@
         <v>7000000</v>
       </c>
       <c r="G9">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="H9">
         <v>9000000</v>
       </c>
       <c r="I9">
-        <v>10000000</v>
+        <v>9000000</v>
       </c>
       <c r="J9">
         <v>10000000</v>
       </c>
       <c r="K9">
+        <v>10000000</v>
+      </c>
+      <c r="L9">
         <v>11000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>12000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>13000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>15000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>16000000</v>
-      </c>
-      <c r="P9">
-        <v>18000000</v>
       </c>
       <c r="Q9">
         <v>18000000</v>
@@ -1532,19 +1670,19 @@
         <v>18000000</v>
       </c>
       <c r="S9">
+        <v>18000000</v>
+      </c>
+      <c r="T9">
         <v>17000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>16000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>17000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>27000000</v>
-      </c>
-      <c r="W9">
-        <v>13000000</v>
       </c>
       <c r="X9">
         <v>13000000</v>
@@ -1553,669 +1691,684 @@
         <v>13000000</v>
       </c>
       <c r="Z9">
+        <v>13000000</v>
+      </c>
+      <c r="AA9">
         <v>14000000</v>
-      </c>
-      <c r="AA9">
-        <v>16000000</v>
       </c>
       <c r="AB9">
         <v>16000000</v>
       </c>
       <c r="AC9">
+        <v>16000000</v>
+      </c>
+      <c r="AD9">
         <v>15000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>16000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>17000000</v>
-      </c>
-      <c r="AF9">
-        <v>16000000</v>
       </c>
       <c r="AG9">
         <v>16000000</v>
       </c>
       <c r="AH9">
+        <v>16000000</v>
+      </c>
+      <c r="AI9">
         <v>18000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>17000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>18000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>20000000</v>
-      </c>
-      <c r="AL9">
-        <v>18000000</v>
       </c>
       <c r="AM9">
         <v>18000000</v>
       </c>
       <c r="AN9">
+        <v>18000000</v>
+      </c>
+      <c r="AO9">
         <v>19000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>632000000</v>
+      </c>
+      <c r="C10">
         <v>621000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>650000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>630000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>661000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>669000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>673000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>679000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>698000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>643000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>553000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>262000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>242000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>203000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>154000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>123000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>158000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>106000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>109000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>102000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>93000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>87000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>93000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>87000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>79000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>81000000</v>
-      </c>
-      <c r="AA10">
-        <v>73000000</v>
       </c>
       <c r="AB10">
         <v>73000000</v>
       </c>
       <c r="AC10">
+        <v>73000000</v>
+      </c>
+      <c r="AD10">
         <v>72000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>67000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>75000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>61000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>81000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>79000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>81000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>92000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>96000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>95000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>96000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>99000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-296000000</v>
+      </c>
+      <c r="C11">
         <v>-333000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-397000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-449000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-529000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-639000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-474000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-489000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-576000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-524000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-459000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-150000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-138000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-82000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-47000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-17000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-129000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-94000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-124000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-36000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-61000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-47000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-68000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-61000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-558000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-79000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-60000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-47000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-62000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-93000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-60000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-73000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-95000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-88000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-70000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-83000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-81000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-76000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-83000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-90000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-649000000</v>
+      </c>
+      <c r="C12">
         <v>-3132000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>377000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-1618000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-4700000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-310000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>549000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-572000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-8625000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-925000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-3423000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-1503000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-2342000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1177000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-3427000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2333000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>4046000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2133000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2586000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2839000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2917000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2583000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2462000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2145000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2318000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2203000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-479000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1741000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1099000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2487000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1623000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1946000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1930000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2031000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1717000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1459000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1434000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1727000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1633000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1438000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>14000000</v>
+      </c>
+      <c r="C13">
         <v>176000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>217000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-376000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-536000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-178000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-18000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-11000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-186000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-459000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-1028000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-862000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-1332000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>10000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-485000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>184000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>622000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-230000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>390000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>362000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-403000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>773000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>713000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>566000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>548000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-76000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-245000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>522000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>73000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>783000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>513000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>610000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>464000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>669000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>64000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>494000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>201000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>567000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>546000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>332000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>-663000000</v>
+      </c>
+      <c r="C14">
         <v>-3308000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>160000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-1242000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-4164000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-132000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>567000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-561000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-8439000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-466000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-2395000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-641000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-1010000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1167000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-2942000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2149000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3424000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2363000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2196000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2477000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3320000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1810000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1749000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1579000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1770000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2279000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-234000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1219000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1026000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1704000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1110000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1336000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1466000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1362000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1653000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>965000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1233000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1160000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1087000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1106000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
       <c r="G15">
@@ -2224,20 +2377,20 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>-3000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1000000</v>
-      </c>
-      <c r="P15">
-        <v>2000000</v>
       </c>
       <c r="Q15">
         <v>2000000</v>
@@ -2245,2581 +2398,2635 @@
       <c r="R15">
         <v>2000000</v>
       </c>
-      <c r="T15">
+      <c r="S15">
+        <v>2000000</v>
+      </c>
+      <c r="U15">
         <v>3000000</v>
-      </c>
-      <c r="U15">
-        <v>2000000</v>
       </c>
       <c r="V15">
         <v>2000000</v>
       </c>
-      <c r="X15">
+      <c r="W15">
         <v>2000000</v>
       </c>
       <c r="Y15">
+        <v>2000000</v>
+      </c>
+      <c r="Z15">
         <v>-2000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>3000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-1000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>3000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>3000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>-33000000</v>
+        <v>-29000000</v>
       </c>
       <c r="C16">
         <v>-33000000</v>
       </c>
       <c r="D16">
+        <v>-33000000</v>
+      </c>
+      <c r="E16">
         <v>-23000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-21000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-23000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-20000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-24000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-19000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-17000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-19000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-13000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>-634000000</v>
+      </c>
+      <c r="C17">
         <v>-3275000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>193000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-1219000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-4143000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-109000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>587000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-537000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-8420000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-449000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-2376000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-628000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-1007000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1166000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-2942000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2147000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3422000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2361000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2196000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2474000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>3318000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1808000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1749000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1577000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1772000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2276000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-234000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1217000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1027000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1701000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1110000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1334000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1465000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1360000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1652000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>963000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1232000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1156000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1087000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1103000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-5.49</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.32</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-2.06</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-7.02</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.19</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.92</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-14.65</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.79</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-4.2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-1.11</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-1.79</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2.07</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-5.21</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>3.79</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4.11</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3.77</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>4.19</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>5.25</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>3.1</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>2.93</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>2.36</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2.63</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>3.64</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-0.37</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1.85</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1.52</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2.5</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1.61</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1.89</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2.05</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1.88</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2.24</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1.3</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1.63</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1.51</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1.43</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1.45</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-5.49</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.32</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-2.06</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-7.02</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.19</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-0.92</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-14.65</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.79</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-4.2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-1.11</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-1.79</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2.05</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-5.21</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3.75</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>5.93</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>4.07</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>3.73</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>4.15</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>5.18</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>3.06</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2.89</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2.34</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2.59</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>3.6</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-0.37</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1.83</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1.51</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2.47</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1.59</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1.87</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2.02</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1.86</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2.24</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1.28</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1.61</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1.51</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1.41</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1.44</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>598113200</v>
+      </c>
+      <c r="C20">
         <v>596000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>594000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>591400000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>587600000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>588600000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>587500000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>585000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>568600000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>566100000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>565900000</v>
-      </c>
-      <c r="L20">
-        <v>565400000</v>
       </c>
       <c r="M20">
         <v>565400000</v>
       </c>
       <c r="N20">
+        <v>565400000</v>
+      </c>
+      <c r="O20">
         <v>564600000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>564700000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>567100000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>579200000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>574200000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>581900000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>590100000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>602500000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>598300000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>601800000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>613600000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>635500000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>624600000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>635300000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>658600000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>686900000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>680100000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>690100000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>704600000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>727600000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>721500000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>729800000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>743400000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>758900000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>757600000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>761400000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>761200000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>598900000</v>
+      </c>
+      <c r="C21">
         <v>596000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>596100000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>591400000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>587600000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>588600000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>589800000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>585000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>568600000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>566100000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>565900000</v>
-      </c>
-      <c r="L21">
-        <v>565400000</v>
       </c>
       <c r="M21">
         <v>565400000</v>
       </c>
       <c r="N21">
+        <v>565400000</v>
+      </c>
+      <c r="O21">
         <v>568600000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>564700000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>571800000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>585500000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>580200000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>588000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>596500000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>610000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>606300000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>608900000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>620400000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>642800000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>631800000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>635300000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>664800000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>695000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>687800000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>697800000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>713100000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>736700000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>730600000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>738800000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>752500000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>767600000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>767300000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>769900000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>766600000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.09329999999999999</v>
+      </c>
+      <c r="C22">
         <v>-0.0511</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1276</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.0252</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-0.1695</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.1125</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1423</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.09320000000000001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.371</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.0738</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-0.0982</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.008999999999999999</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-0.0438</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.1534</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-0.1297</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1872</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2212</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.164</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1954</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1956</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1981</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1773</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1892</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1776</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2037</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1677</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.0988</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1569</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.125</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.165</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1308</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1657</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1542</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1567</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1539</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1557</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1437</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.157</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1551</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.167</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>-0.0173</v>
+      </c>
+      <c r="C23">
         <v>-0.175</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.0468</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-0.08309999999999999</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-0.2815</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.022</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.0607</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.0049</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.5253</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.0277</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-0.2501</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-0.0793</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-0.1223</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.0638</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-0.2136</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1033</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1479</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.0893</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1124</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1236</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.1209</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1097</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1103</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.101</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1301</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.0961</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-0.0163</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.07969999999999999</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.0499</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1004</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.0693</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.0919</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.0834</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.08989999999999999</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.0818</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.0762</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.0645</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.0823</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.0795</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.0819</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>-0.0325</v>
+      </c>
+      <c r="C24">
         <v>-0.1963</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.0226</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.1156</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.3177</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.0203</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.0323</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-0.0376</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.5636</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.0654</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-0.2899</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-0.08890000000000001</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-0.1308</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.0589</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-0.2176</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.1018</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1428</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.0848</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.1066</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.1214</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.1178</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.1066</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.1068</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.0977</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.1044</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.0922</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-0.0193</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.0769</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.0466</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.09619999999999999</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.06610000000000001</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.08790000000000001</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.0789</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.0854</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.0779</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.0713</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.0603</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.078</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.07489999999999999</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.0761</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>-0.0317</v>
+      </c>
+      <c r="C25">
         <v>-0.2053</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.0116</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.0871</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.2801</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.0071</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.0345</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.0353</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.5502</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.0318</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-0.2012</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-0.0371</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-0.0562</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.0584</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-0.1868</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.09370000000000001</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.1207</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.0939</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.0905</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.1058</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.134</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0746</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0759</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.0718</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.0798</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.09520000000000001</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-0.0095</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.0538</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.0436</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.0658</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.0452</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.0602</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.0599</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.0572</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.07489999999999999</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.0471</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.0518</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.0522</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.0498</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.0584</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>-2299000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1278000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-676000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-3630000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>859000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1583000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>462000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-7461000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>174000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-2406000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-785000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-1563000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1850000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-2818000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2889000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>4776000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2768000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>3234000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>3392000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3572000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3171000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3031000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2687000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3414000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2770000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>44000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>2247000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1660000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>3033000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2153000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2494000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2569000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>2615000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>2256000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>2008000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>2056000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>2279000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2170000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1976000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>-345000000</v>
+      </c>
+      <c r="C27">
         <v>-2792000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>780000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-1162000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-4164000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>336000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1032000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-74000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-8039000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-391000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-2953000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-1341000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-2191000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1274000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-3364000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2368000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>4193000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2245000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2727000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2891000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2995000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>2657000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2543000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2219000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2889000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>2296000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-403000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1804000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1176000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>2596000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1700000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2035000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>2041000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>2137000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1804000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1560000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1535000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1821000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1734000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1547000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-663000000</v>
+      </c>
+      <c r="C28">
         <v>-3308000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>160000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-1242000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-4164000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-132000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>567000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-561000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-8439000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-466000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-2395000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-641000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-1010000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1167000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-2942000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2149000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3424000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2363000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2196000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2477000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3320000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1810000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1749000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1579000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1770000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2279000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-234000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1219000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1026000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1704000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1110000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1336000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>1466000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1362000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1653000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>965000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1233000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1160000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1087000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1106000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM29">
         <v>-2000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-663000000</v>
+      </c>
+      <c r="C30">
         <v>-3308000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>160000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1242000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-4164000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-132000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>567000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-561000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-8439000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-466000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-2395000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-641000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-1010000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1167000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-2942000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2149000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>3424000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2363000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2196000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2477000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3320000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1810000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1749000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1579000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1770000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>2279000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-234000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1219000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1026000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1704000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1110000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1336000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1466000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1362000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1653000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>965000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1233000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1158000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1088000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1106000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>-1.1085</v>
+      </c>
+      <c r="C31">
         <v>-5.5503</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.2694</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-2.1001</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-7.0828</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-0.2243</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.9651</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.959</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-14.8116</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.8232</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-4.2322</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-1.1337</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-1.7714</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>2.067</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-5.2098</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3.7895</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>5.9727</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>4.1153</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3.7738</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>4.1976</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>5.5333</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>3.0252</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>2.9063</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>2.5733</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2.79</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>3.6487</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-0.3683</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.8509</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.5252</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>2.5055</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.6085</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.8961</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>2.0341</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1.8877</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>2.265</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1.2981</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.633</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.53</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1.43</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1.45</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>-1.107</v>
+      </c>
+      <c r="C32">
         <v>-5.5503</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.2684</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-2.1001</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-7.079</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.2243</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.9613</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.959</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-14.8116</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.8232</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-4.2322</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-1.1337</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-1.7257</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2.0524</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-5.2098</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>3.7583</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>5.9051</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>4.0727</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>3.7347</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>4.1526</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>5.4627</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2.9853</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2.8724</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2.5451</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2.7589</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>3.6072</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-0.3683</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>1.8336</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1.5058</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2.4775</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>1.5907</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1.8735</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>2.0084</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>1.8642</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>2.2374</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>1.2824</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1.6145</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1.51</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>1.41</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>1.44</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL33">
         <v>0.0013</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-0.0026</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL34">
         <v>0.0013</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>-0.0026</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>-1.1085</v>
+      </c>
+      <c r="C35">
         <v>-5.5503</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.2694</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-2.1001</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-7.0828</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-0.2243</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.9651</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-0.959</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-14.8116</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-0.8232</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>-4.2322</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-1.1337</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-1.7714</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>2.067</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>-5.2098</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>3.7895</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>5.9727</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>4.1153</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>3.7738</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>4.1976</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>5.5333</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>3.0252</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>2.9063</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>2.5733</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>2.79</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>3.6487</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>-0.3683</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>1.8509</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>1.5252</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>2.5055</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>1.6085</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>1.8961</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>2.0341</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>1.8877</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>2.265</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>1.2981</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1.6312</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1.5285</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>1.4289</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>1.453</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>-1.107</v>
+      </c>
+      <c r="C36">
         <v>-5.5503</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.2684</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-2.1001</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-7.079</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.2243</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.9613</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-0.959</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-14.8116</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-0.8232</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>-4.2322</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-1.1337</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-1.7257</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>2.0524</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>-5.2098</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>3.7583</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>5.9051</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>4.0727</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>3.7347</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>4.1526</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>5.4627</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>2.9853</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>2.8724</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>2.5451</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>2.7589</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>3.6072</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>-0.3683</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>1.8336</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>1.5058</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>2.4775</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>1.5907</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>1.8735</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>2.0084</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>1.8642</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>2.2374</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>1.2824</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>1.6081</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1.5092</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>1.4132</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1.4427</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>596300000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>596400000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>591700000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>590300000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>589000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>590200000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>585400000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>575400000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>566600000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>566400000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>565900000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>565400000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>569200000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>565300000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>572400000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>577500000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>580800000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>588700000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>597200000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>605100000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>606300000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>609600000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>621200000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>630300000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>632700000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>636300000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>665800000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>681200000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>689000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>698900000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>714200000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>724800000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>731900000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>740100000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>754100000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>768400000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>769100000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>771800000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>768700000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>-0.1441</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.0766</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.0483</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.2454</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.0562</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.0931</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.0304</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>-0.4875</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.0123</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>-0.2038</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>-0.0464</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>-0.0873</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.0926</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>-0.1789</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.1261</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.1685</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.1101</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.1333</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.1451</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.1442</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.1309</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.1315</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.1224</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.1537</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.1159</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.0018</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.0993</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.0704</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.1173</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.0877</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.1126</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.105</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.1099</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.1023</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.09810000000000001</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.0864</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.103</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.09950000000000001</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.1046</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>0.173</v>
+      </c>
+      <c r="C39">
         <v>0.1999</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.0049</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>-0.2299</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.0484</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-0.0171</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>-0.0284</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>-0.2226</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>-0.262</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-0.3408</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>-0.4472</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>-0.2544</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>-0.1239</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>-0.1213</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>-0.0375</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.1217</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.104</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.1813</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.1929</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.1341</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.1172</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.1402</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.2147</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>0.0955</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.1274</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.134</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>0.1289</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>0.0563</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>0.1323</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.1106</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>0.1343</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>0.004</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>0.2043</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>0.0395</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0.08210000000000001</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>0.0543</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>0.058</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>0.1269</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>0.1589</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>0.0277</v>
       </c>
     </row>
